--- a/aichan/540207246899954757_2021-06-25_18-00-01.xlsx
+++ b/aichan/540207246899954757_2021-06-25_18-00-01.xlsx
@@ -419,6 +419,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
